--- a/app/Licenciatura_em_Ensino_de_Frances_Pos_Laboral.xlsx
+++ b/app/Licenciatura_em_Ensino_de_Frances_Pos_Laboral.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="198">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -187,9 +187,6 @@
     <t xml:space="preserve">ArgÉlia GraÇa Calisto </t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -226,9 +223,6 @@
     <t>Amelia Muinga</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>110104169442B</t>
   </si>
   <si>
@@ -277,9 +271,6 @@
     <t>Mujawimana Hyacenthe</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -304,9 +295,6 @@
     <t>Belarmina Isabel Singa</t>
   </si>
   <si>
-    <t>Distrito Municipal Kanyaka</t>
-  </si>
-  <si>
     <t>110700313907F</t>
   </si>
   <si>
@@ -400,9 +388,6 @@
     <t>Cristina David Mulungo</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110100247833J</t>
   </si>
   <si>
@@ -547,9 +532,6 @@
     <t>Cacilda Paulino  Chavane</t>
   </si>
   <si>
-    <t>Cidade de Xai-Xai</t>
-  </si>
-  <si>
     <t>Cartao de Eleitor</t>
   </si>
   <si>
@@ -620,9 +602,6 @@
   </si>
   <si>
     <t>Guilhermina Abel Valoi</t>
-  </si>
-  <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
   </si>
   <si>
     <t>110102870587C</t>
@@ -1912,7 +1891,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -1928,7 +1907,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -1944,7 +1923,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -1960,7 +1939,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -1976,7 +1955,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -1991,9 +1970,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>120</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2001,7 +1978,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2012,7 +1989,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2021,7 +1998,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2033,7 +2010,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2041,7 +2018,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2137,7 +2114,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2180,7 +2157,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2507,7 +2484,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2523,7 +2500,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2539,7 +2516,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2555,7 +2532,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2571,7 +2548,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2586,9 +2563,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2596,7 +2571,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2607,7 +2582,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2616,7 +2591,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2628,7 +2603,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2636,7 +2611,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2732,7 +2707,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2775,7 +2750,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3102,7 +3077,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3118,7 +3093,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3134,7 +3109,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3150,7 +3125,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3166,7 +3141,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3181,9 +3156,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>120</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3191,7 +3164,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3202,7 +3175,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3211,7 +3184,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3223,7 +3196,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3231,7 +3204,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3327,7 +3300,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3370,7 +3343,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3697,7 +3670,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3713,7 +3686,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3729,7 +3702,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3745,7 +3718,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3761,7 +3734,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3776,9 +3749,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>120</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3786,7 +3757,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3797,7 +3768,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3806,7 +3777,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3818,7 +3789,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3826,7 +3797,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3922,7 +3893,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3965,7 +3936,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4292,7 +4263,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4308,7 +4279,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4324,7 +4295,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4340,7 +4311,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4356,7 +4327,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4371,9 +4342,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4381,7 +4350,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4392,7 +4361,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4401,7 +4370,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4413,7 +4382,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4421,7 +4390,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4517,7 +4486,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4560,7 +4529,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4887,7 +4856,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4903,7 +4872,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4919,7 +4888,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4935,7 +4904,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4951,7 +4920,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4966,9 +4935,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>120</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4976,7 +4943,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4987,7 +4954,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4996,7 +4963,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5008,7 +4975,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5016,7 +4983,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5112,7 +5079,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5155,7 +5122,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5482,7 +5449,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5498,7 +5465,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5689,7 +5656,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6055,7 +6022,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6071,7 +6038,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6087,7 +6054,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6103,7 +6070,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6119,7 +6086,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6134,9 +6101,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>169</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6144,7 +6109,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6155,7 +6120,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6164,7 +6129,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6176,7 +6141,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6184,7 +6149,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6280,7 +6245,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6323,7 +6288,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6650,7 +6615,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6666,7 +6631,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6682,7 +6647,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6698,7 +6663,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6714,7 +6679,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6729,9 +6694,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6739,7 +6702,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6750,7 +6713,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6759,7 +6722,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6771,7 +6734,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6779,7 +6742,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6875,7 +6838,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6918,7 +6881,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7245,7 +7208,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7261,7 +7224,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7277,7 +7240,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7293,7 +7256,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7309,7 +7272,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7324,9 +7287,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7334,7 +7295,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7345,7 +7306,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7354,7 +7315,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7366,7 +7327,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7374,7 +7335,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7470,7 +7431,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7513,7 +7474,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7919,9 +7880,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7929,7 +7888,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7940,7 +7899,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7949,7 +7908,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7961,7 +7920,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7969,7 +7928,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8065,7 +8024,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8108,7 +8067,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8435,7 +8394,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8451,7 +8410,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8467,7 +8426,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8483,7 +8442,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8499,7 +8458,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8514,9 +8473,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>194</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8524,7 +8481,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8535,7 +8492,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8544,7 +8501,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8556,7 +8513,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8564,7 +8521,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8660,7 +8617,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8703,7 +8660,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9030,7 +8987,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9046,7 +9003,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9062,7 +9019,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9078,7 +9035,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9094,7 +9051,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9109,9 +9066,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9119,7 +9074,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9130,7 +9085,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9139,7 +9094,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9151,7 +9106,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9159,7 +9114,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9255,7 +9210,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9298,7 +9253,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9681,7 +9636,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9697,7 +9652,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9713,7 +9668,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9729,7 +9684,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9745,7 +9700,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9760,9 +9715,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9770,7 +9723,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9781,7 +9734,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9790,7 +9743,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9802,7 +9755,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9810,7 +9763,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9906,7 +9859,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9949,7 +9902,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10276,7 +10229,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10292,7 +10245,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10308,7 +10261,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10324,7 +10277,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10340,7 +10293,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10355,9 +10308,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10365,7 +10316,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10376,7 +10327,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10385,7 +10336,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10397,7 +10348,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10405,7 +10356,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10501,7 +10452,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10544,7 +10495,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10871,7 +10822,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10887,7 +10838,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10903,7 +10854,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10919,7 +10870,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10935,7 +10886,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10950,9 +10901,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10960,7 +10909,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10971,7 +10920,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10980,7 +10929,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10992,7 +10941,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11096,7 +11045,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11139,7 +11088,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11466,7 +11415,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11482,7 +11431,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11498,7 +11447,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11514,7 +11463,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11530,7 +11479,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11545,9 +11494,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11555,7 +11502,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11566,7 +11513,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11575,7 +11522,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11587,7 +11534,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11595,7 +11542,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11691,7 +11638,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11734,7 +11681,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12061,7 +12008,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12077,7 +12024,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12093,7 +12040,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12109,7 +12056,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12125,7 +12072,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12140,9 +12087,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12150,7 +12095,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12161,7 +12106,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12170,7 +12115,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12182,7 +12127,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12190,7 +12135,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12286,7 +12231,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12329,7 +12274,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12656,7 +12601,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12672,7 +12617,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12688,7 +12633,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12704,7 +12649,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12720,7 +12665,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12735,9 +12680,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12745,7 +12688,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12756,7 +12699,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12765,7 +12708,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12777,7 +12720,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12785,7 +12728,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12881,7 +12824,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12924,7 +12867,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13251,7 +13194,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13267,7 +13210,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13283,7 +13226,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13299,7 +13242,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13328,9 +13271,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13338,7 +13279,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13349,7 +13290,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13358,7 +13299,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13370,7 +13311,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13378,7 +13319,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13474,7 +13415,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13517,7 +13458,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
